--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -1,90 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A54C7-4CCA-4F4B-8EAF-55A9F285B934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>Temperatura (ºC)</t>
-  </si>
-  <si>
-    <t>Humedad Relativa (%)</t>
-  </si>
-  <si>
-    <t>Radiación Solar (W/m²)</t>
-  </si>
-  <si>
-    <t>Velocidad de Viento Promedio (km/h)</t>
-  </si>
-  <si>
-    <t>Dirección de Viento Predominante</t>
-  </si>
-  <si>
-    <t>Precipitación (mm)</t>
-  </si>
-  <si>
-    <t>Hora de Ejecución</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>11:27:27</t>
-  </si>
-  <si>
-    <t>11:28:45</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,112 +424,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura (ºC)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Humedad Relativa (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Radiación Solar (W/m²)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad de Viento Promedio (km/h)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección de Viento Predominante</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precipitación (mm)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de Ejecución</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45862.46875</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>634.5700000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>11:27:27</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45862.46875</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="n">
         <v>2025</v>
       </c>
-      <c r="C2">
+      <c r="C3" t="n">
         <v>30</v>
       </c>
-      <c r="D2">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="E2">
+      <c r="D3" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="E3" t="n">
         <v>83.59</v>
       </c>
-      <c r="F2">
-        <v>634.57000000000005</v>
-      </c>
-      <c r="G2">
+      <c r="F3" t="n">
+        <v>634.5700000000001</v>
+      </c>
+      <c r="G3" t="n">
         <v>12.83</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11:28:45</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45862.46875</v>
-      </c>
-      <c r="B3">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45862.5625</v>
+      </c>
+      <c r="B4" t="n">
         <v>2025</v>
       </c>
-      <c r="C3">
+      <c r="C4" t="n">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="E3">
-        <v>83.59</v>
-      </c>
-      <c r="F3">
-        <v>634.57000000000005</v>
-      </c>
-      <c r="G3">
-        <v>12.83</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="D4" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>13:46:43</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,42 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45862.57291666666</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>14:00:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,25 +491,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45862.46875</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
+        <v>45862.45833333334</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>16.17</v>
+        <v>16.44</v>
       </c>
       <c r="E2" t="n">
-        <v>83.59</v>
+        <v>83.03</v>
       </c>
       <c r="F2" t="n">
-        <v>634.5700000000001</v>
+        <v>648.1900000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83</v>
+        <v>13.25</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,69 +515,53 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>11:27:27</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45862.46875</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
+        <v>45862.5</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>16.17</v>
+        <v>17.65</v>
       </c>
       <c r="E3" t="n">
-        <v>83.59</v>
+        <v>79.31999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>634.5700000000001</v>
+        <v>613.04</v>
       </c>
       <c r="G3" t="n">
-        <v>12.83</v>
+        <v>13.12</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>ESE</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11:28:45</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45862.5625</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
+        <v>45862.54166666666</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>18.56</v>
+        <v>18.51</v>
       </c>
       <c r="E4" t="n">
-        <v>76.31</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>94.92</v>
+        <v>327.83</v>
       </c>
       <c r="G4" t="n">
-        <v>14.32</v>
+        <v>14.07</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -591,33 +571,25 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>13:46:43</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45862.57291666666</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
+        <v>45862.58333333334</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>18.78</v>
+        <v>19.33</v>
       </c>
       <c r="E5" t="n">
-        <v>75.75</v>
+        <v>74.44</v>
       </c>
       <c r="F5" t="n">
-        <v>91.41</v>
+        <v>87.89</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3</v>
+        <v>13.54</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -627,9 +599,69 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>14:00:12</t>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45862.625</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45862.66666666666</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45862.58333333334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>16:38:57</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -493,8 +493,12 @@
       <c r="A2" s="2" t="n">
         <v>45862.45833333334</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
       <c r="D2" t="n">
         <v>16.44</v>
       </c>
@@ -521,8 +525,12 @@
       <c r="A3" s="2" t="n">
         <v>45862.5</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
       <c r="D3" t="n">
         <v>17.65</v>
       </c>
@@ -549,8 +557,12 @@
       <c r="A4" s="2" t="n">
         <v>45862.54166666666</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
       <c r="D4" t="n">
         <v>18.51</v>
       </c>
@@ -577,8 +589,12 @@
       <c r="A5" s="2" t="n">
         <v>45862.58333333334</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
       <c r="D5" t="n">
         <v>19.33</v>
       </c>
@@ -661,7 +677,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>16:38:57</t>
+          <t>17:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,6 +681,42 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45862.72465423148</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17:23:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -647,7 +647,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45862.58333333334</v>
+        <v>45862.70833333334</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45862.72465423148</v>
+        <v>45862.75021494755</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17:23:30</t>
+          <t>18:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45862.75021494755</v>
+        <v>45862.75021494213</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -714,6 +714,42 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>18:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45862.79190448848</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>19:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +719,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45862.79190448848</v>
+        <v>45862.79190449074</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -750,6 +750,42 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>19:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45862.87522489934</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="F11" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>21:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45862.87522489934</v>
+        <v>45862.87522489583</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -786,6 +786,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>21:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45862.9168948495</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="F12" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>22:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-24.xlsx
+++ b/datos_dropcontrol/2025-07-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45862.9168948495</v>
+        <v>45862.91689484954</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -822,6 +822,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>22:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45862.9585492305</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>23:00:18</t>
         </is>
       </c>
     </row>
